--- a/data/trans_camb/P22_R4-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P22_R4-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-4.012576179048717</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6811312103324835</v>
+        <v>0.6811312103324862</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2331799263319237</v>
@@ -664,7 +664,7 @@
         <v>-2.209734200915515</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.850729597207345</v>
+        <v>3.850729597207342</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.524367857764844</v>
+        <v>-5.159282008984918</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.103650945947821</v>
+        <v>-9.361488951484702</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.814831874596109</v>
+        <v>-4.722497310269491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.727564372625388</v>
+        <v>-4.822124851219205</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.483785244083307</v>
+        <v>-5.55020551079017</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.036165981759369</v>
+        <v>2.565609377901328</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.014375011714449</v>
+        <v>-3.175257610828097</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.932676393970963</v>
+        <v>-6.076399810844127</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05497449136287191</v>
+        <v>-0.07109677982135848</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.087751656959399</v>
+        <v>6.623276491397107</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.181404438460675</v>
+        <v>1.177297081236192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.292625942291664</v>
+        <v>6.381905531941594</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.604342926581989</v>
+        <v>5.431274944661063</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.389502135514918</v>
+        <v>4.568948633654327</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.05004319122842</v>
+        <v>12.07979259044949</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.456850153924502</v>
+        <v>4.487900651195009</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.354791570092591</v>
+        <v>1.151396297846908</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.258981160259345</v>
+        <v>7.705237940773046</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3184533130639511</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.05405716449551917</v>
+        <v>0.05405716449551939</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.02690022329932637</v>
@@ -769,7 +769,7 @@
         <v>-0.20698641401606</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.360698906837406</v>
+        <v>0.3606989068374057</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3175158919816735</v>
+        <v>-0.3474378075507197</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5889171563677041</v>
+        <v>-0.5990340461713062</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3257199699490584</v>
+        <v>-0.3176893701583413</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4259238550463618</v>
+        <v>-0.4134778240191304</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4787252599610873</v>
+        <v>-0.4878164084513734</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.156077450179925</v>
+        <v>0.199789646002499</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2461552887140819</v>
+        <v>-0.2656796981918033</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4718598655050781</v>
+        <v>-0.4629679171412778</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.01751167731723622</v>
+        <v>-0.006841018184514509</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7258734599931121</v>
+        <v>0.668934571879506</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1376503628489179</v>
+        <v>0.1377882843282273</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6568832711998482</v>
+        <v>0.644444329493991</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9524444288512843</v>
+        <v>0.9232718283133179</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7672269577145375</v>
+        <v>0.8111736474775523</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.187661653623652</v>
+        <v>1.997741732377078</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5373628182910651</v>
+        <v>0.4995545375833474</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1827295637788638</v>
+        <v>0.1350744438525141</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8750267278335719</v>
+        <v>0.9030199632497009</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.164386149563166</v>
+        <v>-3.148146147204108</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.89994986056608</v>
+        <v>-10.47909870725085</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.435189648610976</v>
+        <v>-4.178230814393364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.478355279559816</v>
+        <v>-0.4939846183463438</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.393109926050807</v>
+        <v>-5.134518311261256</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.079020997995398</v>
+        <v>-1.54210878744397</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.6986652833508353</v>
+        <v>-0.4142226246091137</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.663271124240986</v>
+        <v>-6.836923814512422</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.707166370788149</v>
+        <v>-1.57283608672581</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.122584895191936</v>
+        <v>5.359017526755903</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.30363858659306</v>
+        <v>-3.980127479150304</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.246538822123251</v>
+        <v>4.350170883504999</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.019217059005502</v>
+        <v>6.710878856813311</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5757470916329249</v>
+        <v>0.7092465954228249</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.855402193474967</v>
+        <v>4.78021496828005</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.843669122960168</v>
+        <v>5.05083021567471</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.404681954587158</v>
+        <v>-2.46229798744703</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.455228628015053</v>
+        <v>3.627911848601843</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2801493360675526</v>
+        <v>-0.2653776028664877</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8679695424469857</v>
+        <v>-0.8698920319041459</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.311796023550401</v>
+        <v>-0.3541891728076396</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07061511760050418</v>
+        <v>-0.07120759512776795</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5990472651720954</v>
+        <v>-0.590865857740928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1343483920752734</v>
+        <v>-0.1777186866522621</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07981403974035389</v>
+        <v>-0.04648727219657009</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7013239377039704</v>
+        <v>-0.6954046546149335</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1700427054847311</v>
+        <v>-0.1681216083542629</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6746706306325589</v>
+        <v>0.7114961364229943</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.486327127027019</v>
+        <v>-0.4835415149916211</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5134036027283412</v>
+        <v>0.5653508896232795</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.408570691547722</v>
+        <v>1.288985385732982</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1496154381223424</v>
+        <v>0.1919290914632683</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9959825341429072</v>
+        <v>0.897149905655789</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6772200428542579</v>
+        <v>0.7347594654242877</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.343452263554165</v>
+        <v>-0.3291122851313895</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.481255070271594</v>
+        <v>0.5028487449267306</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.4309695026029334</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.616346644791421</v>
+        <v>5.616346644791424</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.822490096704465</v>
@@ -1092,7 +1092,7 @@
         <v>1.256340740199319</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.627240234190916</v>
+        <v>4.627240234190913</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.580690338177639</v>
+        <v>-2.567504175264443</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.721425491871602</v>
+        <v>-1.754776685120492</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.80461262439745</v>
+        <v>-0.91743586857255</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7530306975392729</v>
+        <v>-0.9249319808375109</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.365052200573832</v>
+        <v>-2.449009520152896</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.727501497235699</v>
+        <v>2.342314281566201</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6331061814673258</v>
+        <v>-0.7068342968606162</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.243164083183317</v>
+        <v>-1.27503479003678</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.080928033938325</v>
+        <v>1.957813814068523</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.69109474810197</v>
+        <v>5.827442593554589</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.398056598633318</v>
+        <v>6.420418973182601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.90499008844164</v>
+        <v>7.542920474317135</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.361808119629011</v>
+        <v>5.739537695024029</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.165477731351483</v>
+        <v>3.253585392528808</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.170963335293337</v>
+        <v>8.565083237975562</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.737574704236209</v>
+        <v>4.409614427033595</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.813536136412621</v>
+        <v>3.446181929380702</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.429155025074525</v>
+        <v>7.484405937359721</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1166636432933725</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.520347629292821</v>
+        <v>1.520347629292822</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3728508248393197</v>
@@ -1197,7 +1197,7 @@
         <v>0.2570261874726213</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9466555352852154</v>
+        <v>0.9466555352852148</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3396594100497312</v>
+        <v>-0.3308251861170398</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.207094744226636</v>
+        <v>-0.2401520119326434</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1160169645914644</v>
+        <v>-0.122006011186565</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2268664864754348</v>
+        <v>-0.2292077836799227</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4857270280201998</v>
+        <v>-0.4977902667472458</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.425549800337427</v>
+        <v>0.3798468707684909</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1336230587849053</v>
+        <v>-0.1333624355696693</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2009520969673763</v>
+        <v>-0.2088611172860953</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.30811860486894</v>
+        <v>0.2949487189093782</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.273102970720724</v>
+        <v>1.403176178153615</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.69451042421211</v>
+        <v>1.408258194251523</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.869279437937315</v>
+        <v>1.648275476530928</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.483136419355132</v>
+        <v>2.264938754457084</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.405687885821754</v>
+        <v>1.362771648259413</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.148650418634238</v>
+        <v>3.735211723625131</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.222399201329331</v>
+        <v>1.196202377614831</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.079917873982842</v>
+        <v>0.899444320156252</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.943752658837808</v>
+        <v>2.089645578519038</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.697492439365888</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10.41325726147733</v>
+        <v>10.41325726147732</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.002346854800552</v>
@@ -1297,7 +1297,7 @@
         <v>1.799040377688356</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.114645682155445</v>
+        <v>5.114645682155448</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.172054015321704</v>
@@ -1306,7 +1306,7 @@
         <v>2.72509725191103</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.583718740814629</v>
+        <v>7.583718740814624</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.83170403628095</v>
+        <v>-3.157345136151164</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.282631442380414</v>
+        <v>-0.7725678795333913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.667727026535828</v>
+        <v>4.54913903479202</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.459897158690184</v>
+        <v>-3.149179328130848</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.11711076143074</v>
+        <v>-2.557715931830495</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.39956534996086</v>
+        <v>1.288660419178719</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.866735662876489</v>
+        <v>-1.977081835526657</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.222621103595715</v>
+        <v>-0.3266902184123699</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.727325742208589</v>
+        <v>4.269018960327783</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.842886017871344</v>
+        <v>6.082515568590957</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.297647635529119</v>
+        <v>8.761514887455519</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.41362836276187</v>
+        <v>17.11772483238639</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.759144542428183</v>
+        <v>4.504515899056533</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.990292521419138</v>
+        <v>5.896232987323059</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.322514383625027</v>
+        <v>9.205143806203097</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.037916100277572</v>
+        <v>4.263178489816704</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.930035272293821</v>
+        <v>5.989410157350805</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.25758964398101</v>
+        <v>11.21024782866798</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.4390338328323964</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.236452088205007</v>
+        <v>1.236452088205006</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1321456477133702</v>
@@ -1402,7 +1402,7 @@
         <v>0.2371787319265233</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6742956924100993</v>
+        <v>0.6742956924100997</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1465907249033717</v>
@@ -1411,7 +1411,7 @@
         <v>0.340832398820951</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.9485081857547011</v>
+        <v>0.9485081857547004</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2789023351446466</v>
+        <v>-0.3137837061993689</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1178718505076882</v>
+        <v>-0.07733647792256577</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.402134332132596</v>
+        <v>0.408725696940715</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2797635470479079</v>
+        <v>-0.3349676694950196</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2417543881703705</v>
+        <v>-0.2629485959066986</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1109542536478621</v>
+        <v>0.08854724113622561</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2033120619871415</v>
+        <v>-0.1927515871061279</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02742453952416898</v>
+        <v>-0.03939080461351555</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4741408544725136</v>
+        <v>0.4418887181975044</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8963127476635603</v>
+        <v>0.9689127449821783</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.281845276736599</v>
+        <v>1.415187274750608</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.477360921305296</v>
+        <v>2.448469368996263</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8472327305653937</v>
+        <v>0.7631511812520606</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.092593137504641</v>
+        <v>1.012713862571193</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.607272934458834</v>
+        <v>1.676199781672522</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5999935785500454</v>
+        <v>0.6600777097793747</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8648250590561397</v>
+        <v>0.9412647777380291</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.699102607532938</v>
+        <v>1.674365442622697</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-17.13064443365472</v>
+        <v>-17.70800996345811</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-21.66335513547879</v>
+        <v>-22.64698390264926</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-17.3923311845693</v>
+        <v>-17.42180985220458</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-19.04649486201922</v>
+        <v>-18.19549131227702</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-25.83836701055403</v>
+        <v>-26.12413412443044</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-19.03215262688266</v>
+        <v>-18.60643750338</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-16.465885533319</v>
+        <v>-16.14662607921128</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-22.31958169486674</v>
+        <v>-22.27408817771069</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-16.06325858246531</v>
+        <v>-16.03708253577793</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.941548322741654</v>
+        <v>-2.667562679897621</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-7.914022726277262</v>
+        <v>-8.904360680955604</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.717877745498243</v>
+        <v>-4.29134570024242</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-5.071936361804661</v>
+        <v>-5.079487710406658</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-14.40236446036113</v>
+        <v>-14.32862761110355</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-6.229322061784258</v>
+        <v>-6.399452731838196</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-6.348124524225193</v>
+        <v>-6.508792064991038</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-13.38016752384211</v>
+        <v>-13.16722227097551</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-6.881460926119046</v>
+        <v>-7.012325351753668</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.7469770999305048</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.5291220861276485</v>
+        <v>-0.5291220861276487</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.5529078549120354</v>
@@ -1616,7 +1616,7 @@
         <v>-0.9227932108135191</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.56220293237289</v>
+        <v>-0.5622029323728899</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.5219768403249004</v>
@@ -1625,7 +1625,7 @@
         <v>-0.837645978446057</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.5465047760078584</v>
+        <v>-0.5465047760078583</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6843765687849507</v>
+        <v>-0.7011648513619722</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8799544073650238</v>
+        <v>-0.8814429379343222</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6992656443432747</v>
+        <v>-0.6991331414716866</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7358413282497788</v>
+        <v>-0.7242731652610587</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.979785219974791</v>
+        <v>-0.979634542415627</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7062455490900691</v>
+        <v>-0.7034771767961008</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6718288012215002</v>
+        <v>-0.6700932750814376</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.9141025337042167</v>
+        <v>-0.9133764314469843</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.662636425662849</v>
+        <v>-0.6562494090393118</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1621786134724056</v>
+        <v>-0.1377430159981942</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.4594309266328989</v>
+        <v>-0.4975131620320471</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2795168250541152</v>
+        <v>-0.267704100457454</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2644432643675683</v>
+        <v>-0.279801080979337</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.8006097629960899</v>
+        <v>-0.7991844349710362</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3551542556021511</v>
+        <v>-0.375397855936335</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3204938933722514</v>
+        <v>-0.3418111642917344</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.7206592020239223</v>
+        <v>-0.7159341789880184</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4028271202510757</v>
+        <v>-0.3759107451814035</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>0.1261899311437262</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.535769875634676</v>
+        <v>2.535769875634677</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-0.8798533617220148</v>
@@ -1725,7 +1725,7 @@
         <v>-1.005894535880563</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.016120160071909</v>
+        <v>6.016120160071904</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.1085211333500598</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.37873408349486</v>
+        <v>-3.488865429285511</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.295009893003169</v>
+        <v>-4.096920129214342</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.7560204858699</v>
+        <v>-1.990684548044916</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.343787528471329</v>
+        <v>-4.367496319706423</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.12942567012641</v>
+        <v>-4.336363694482833</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.139431192097518</v>
+        <v>2.162215965198358</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.706610284475343</v>
+        <v>-2.825122576130321</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.950519073103491</v>
+        <v>-3.128763290883656</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.527674113516473</v>
+        <v>1.334043085543108</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.938523106689607</v>
+        <v>6.246432620140757</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.881572547772799</v>
+        <v>5.182664981249925</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.566965139624675</v>
+        <v>7.057162779988854</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.3794779272075</v>
+        <v>2.204756461999709</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.147869913387131</v>
+        <v>2.200317082382006</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.680240925728265</v>
+        <v>9.71717093285069</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.14990842651561</v>
+        <v>3.126518195882241</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.423364560755931</v>
+        <v>2.527972403455918</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.040893748676176</v>
+        <v>7.21111366104121</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.01800628750040897</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.3618339514231865</v>
+        <v>0.3618339514231867</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.2016318052559235</v>
@@ -1830,7 +1830,7 @@
         <v>-0.2305160609601072</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.378685609767675</v>
+        <v>1.378685609767673</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.01914553567291504</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3966667534122515</v>
+        <v>-0.3987998977468128</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4669679898195452</v>
+        <v>-0.4680160544818768</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2067733122049329</v>
+        <v>-0.2172476218526062</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6759074624718571</v>
+        <v>-0.7296735475292329</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6983027954600159</v>
+        <v>-0.7193867549508596</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2909274292348654</v>
+        <v>0.3033299405015399</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3805986118206848</v>
+        <v>-0.4036191596444106</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4522699575303424</v>
+        <v>-0.4495699932156436</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1662991905786596</v>
+        <v>0.1817284359494968</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.255446203302756</v>
+        <v>1.303256119022266</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.120089490508209</v>
+        <v>1.050128026060002</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.442169243544051</v>
+        <v>1.541938633973511</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.02977574209123</v>
+        <v>0.8288159202197358</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.076331581778384</v>
+        <v>0.8566934406372448</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.905954509812544</v>
+        <v>4.017170008014912</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7525599760803084</v>
+        <v>0.7197365138501542</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5895516834908002</v>
+        <v>0.6008050800822445</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.648331920827673</v>
+        <v>1.698592943415463</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>2.77836626929575</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>16.29024126823625</v>
+        <v>16.29024126823626</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.137600810307943</v>
+        <v>-2.061626547574576</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.05078420452576</v>
+        <v>0.8137397826908613</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12.75139668898193</v>
+        <v>13.17596630297845</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.904753803671875</v>
+        <v>-5.288973876793626</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.687328144478641</v>
+        <v>-1.520807623602453</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>11.58509818553247</v>
+        <v>11.86658395441038</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.745494928912298</v>
+        <v>-2.757028030748763</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.7001981791820752</v>
+        <v>0.4121908904974017</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>13.67965444564825</v>
+        <v>13.73649546684385</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.594118058925356</v>
+        <v>3.524171003506787</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.553651748721705</v>
+        <v>7.815908019106205</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21.09277258833287</v>
+        <v>21.37087239581716</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.06975046247108</v>
+        <v>0.5207363065231401</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.712126089219638</v>
+        <v>4.873577867504119</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>19.09498719959457</v>
+        <v>19.14843975102738</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.324756141544387</v>
+        <v>1.38778962976029</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.182001503257181</v>
+        <v>4.981832393368719</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>19.22161579712409</v>
+        <v>19.33285276017789</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.6186650030036236</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>2.564979574826091</v>
+        <v>2.564979574826092</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.2421719064436346</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2596460908461901</v>
+        <v>-0.2552949339504192</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1171007228582113</v>
+        <v>0.1012803361919573</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.500868675579214</v>
+        <v>1.590760904033433</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4917132497673824</v>
+        <v>-0.5203338555209094</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1718349516232971</v>
+        <v>-0.1605056119366773</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.095390390472146</v>
+        <v>1.112098952964897</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3320691745673777</v>
+        <v>-0.3143689258570537</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.08102999235301463</v>
+        <v>0.03668152298384628</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.582235938285003</v>
+        <v>1.512418712381393</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7324997059237695</v>
+        <v>0.7010825362732873</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.379011200044898</v>
+        <v>1.529195980145409</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.914262653853758</v>
+        <v>4.083220608978781</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1562958385120398</v>
+        <v>0.09344611054437144</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6968928141343674</v>
+        <v>0.6976165573710217</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.868730390610176</v>
+        <v>2.78259295828787</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2020160139015165</v>
+        <v>0.2165499205522245</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.8355526906637014</v>
+        <v>0.7822041115510447</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>3.015311928418197</v>
+        <v>3.029015925735993</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-3.119335612756127</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-5.31149146335697</v>
+        <v>-5.311491463356968</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-6.587112836853337</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-9.942443993420619</v>
+        <v>-10.21066535430394</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-9.343306443595715</v>
+        <v>-9.732752181199714</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-10.42509021714821</v>
+        <v>-10.41399168088603</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-10.03752536853491</v>
+        <v>-10.08546489033434</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-6.643669204130455</v>
+        <v>-6.701434134296298</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-8.554417376998048</v>
+        <v>-8.611903874250748</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-8.915610674325643</v>
+        <v>-8.777042879616133</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-7.010691788541081</v>
+        <v>-6.838283519125195</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-8.525666528804901</v>
+        <v>-8.460996573365977</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-2.943721937683063</v>
+        <v>-3.532886013587248</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.537277848660533</v>
+        <v>-3.110820936190751</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-3.885613009506467</v>
+        <v>-4.033903713751063</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-3.471471864795647</v>
+        <v>-3.468054218183175</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.2091452166135813</v>
+        <v>0.2131569233877437</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-2.186952226867004</v>
+        <v>-2.382960097560572</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-4.200921652367335</v>
+        <v>-4.106565743305246</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-2.24093069080965</v>
+        <v>-2.077148705111075</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-4.005743868065905</v>
+        <v>-3.931918372210172</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.214194782883053</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.3647231019728949</v>
+        <v>-0.3647231019728948</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.444459328084147</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.586399389010389</v>
+        <v>-0.5992960495524722</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5494930330055923</v>
+        <v>-0.5646748151358788</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.631733420504395</v>
+        <v>-0.6085507002752648</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6097249006265052</v>
+        <v>-0.6085172746233048</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4062594782656959</v>
+        <v>-0.4078218890595592</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5124035779474662</v>
+        <v>-0.5234061338704485</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5517942541086204</v>
+        <v>-0.5486239729834764</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.437437141276431</v>
+        <v>-0.4328029901038072</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5285373273598658</v>
+        <v>-0.5344645632636874</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2138788242737676</v>
+        <v>-0.2613798158545698</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.188558208548241</v>
+        <v>-0.2153881003684725</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2955474168242917</v>
+        <v>-0.2955542289234064</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.2550339246079932</v>
+        <v>-0.2632891202783993</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.02685598629372702</v>
+        <v>0.02292623460070255</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1673814841478253</v>
+        <v>-0.1859762483442958</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.3006350841394418</v>
+        <v>-0.3002325910745612</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.161911787426502</v>
+        <v>-0.1533057478684506</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2966923181041891</v>
+        <v>-0.2937048740938911</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>-1.777367527497685</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>3.696097447154179</v>
+        <v>3.696097447154181</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-1.622019559435417</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.939438320830607</v>
+        <v>-2.861595827367404</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-4.023977520005753</v>
+        <v>-3.906682469382007</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.181183154288539</v>
+        <v>1.189975663044523</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-3.11201763176827</v>
+        <v>-3.356526087225292</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-3.050281790599187</v>
+        <v>-3.138007178044256</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>2.286123274957707</v>
+        <v>2.143431609622623</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.628771413339833</v>
+        <v>-2.579759776463503</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-3.048663558223969</v>
+        <v>-3.033974107143852</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>2.094393144657605</v>
+        <v>2.210159300151735</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.2340972860325731</v>
+        <v>0.04470777117816066</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.8515662149816414</v>
+        <v>-1.004711644723153</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.472417340727815</v>
+        <v>4.668115195005851</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-0.4157962384672252</v>
+        <v>-0.5418898930996542</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.4800580522036216</v>
+        <v>-0.4164366019426564</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>5.093392074712533</v>
+        <v>5.042343357955299</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-0.5982820319694642</v>
+        <v>-0.4909779444406236</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-1.052322961652077</v>
+        <v>-1.113117673303705</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>4.316053728749452</v>
+        <v>4.506695361268746</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>-0.1866018920694616</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3880451095464131</v>
+        <v>0.3880451095464134</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.1613921430758968</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2566569951435272</v>
+        <v>-0.2546781094325754</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3477120348044921</v>
+        <v>-0.340755708017273</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.1027615655829909</v>
+        <v>0.106856179543319</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.3101597243532737</v>
+        <v>-0.3189673489080134</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2984709131185645</v>
+        <v>-0.306506264979019</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2184924581244049</v>
+        <v>0.208820915631137</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.2467979194864401</v>
+        <v>-0.2419436708374092</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2895044721177085</v>
+        <v>-0.2916444285497553</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.1971928738020813</v>
+        <v>0.205692240616075</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.02593117362736834</v>
+        <v>0.006669823073883098</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.08511951993099685</v>
+        <v>-0.09407962362872005</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.4499814497945727</v>
+        <v>0.4761448036130995</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.05092303748033347</v>
+        <v>-0.05617466995763897</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.05563327878586873</v>
+        <v>-0.04545737611785572</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.5949080414397634</v>
+        <v>0.5759704546948093</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.05885598566517265</v>
+        <v>-0.0503800686398377</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.1097428849801329</v>
+        <v>-0.1156422276727166</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.4595327060051475</v>
+        <v>0.4640788848482026</v>
       </c>
     </row>
     <row r="58">
